--- a/results/outputs/res_integrate.xlsx
+++ b/results/outputs/res_integrate.xlsx
@@ -7,16 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="cyto_species" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="cyto_genera" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="scfa_species" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="scfa_genera" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="cyto_scfa" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="scfa_species" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="cyto_scfa" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">Taxon</t>
   </si>
@@ -91,54 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">Succinivibrio.spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akkermansia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alistipes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anaerovibrio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacteroides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bifidobacterium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butyricimonas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dehalobacterium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lachnobacterium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lachnospira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lactococcus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megasphaera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methanobrevibacter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odoribacter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraprevotella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFN20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Succinivibrio</t>
   </si>
   <si>
     <t xml:space="preserve">acetate</t>
@@ -866,274 +816,342 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6</v>
+        <v>0.46</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E2" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E3" t="n">
-        <v>0.74</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00085</v>
+        <v>0.69</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E5" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.015</v>
+        <v>0.95</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E7" t="n">
-        <v>0.31</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.57</v>
+        <v>6.3</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E8" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.73</v>
+        <v>1.2</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E9" t="n">
-        <v>0.53</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>3.4</v>
+        <v>0.17</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E11" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>0.45</v>
+        <v>0.89</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E12" t="n">
-        <v>0.72</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E13" t="n">
-        <v>0.43</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E14" t="n">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0.34</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E15" t="n">
-        <v>0.38</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E17" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>196</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>196</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>196</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>196</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -1169,698 +1187,24 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>0.46</v>
+        <v>2.5</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E2" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>196</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>196</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>196</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>196</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>196</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>196</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>196</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>196</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>196</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>196</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>196</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>196</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" t="n">
-        <v>196</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>196</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>196</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>196</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" t="n">
-        <v>196</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" t="n">
-        <v>196</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" t="n">
-        <v>196</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>200</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>200</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>200</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>200</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>200</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>200</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>200</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>200</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>200</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>200</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>200</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>200</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>200</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" t="n">
-        <v>200</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>200</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>200</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>216</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>42</v>
       </c>
       <c r="B3" t="n">
         <v>1.2</v>
